--- a/data/trans_dic/P16A_n_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R3-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.05006188726593742</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1206058201025997</v>
+        <v>0.1206058201025998</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.04867080313377262</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02140021701402611</v>
+        <v>0.02169305821484041</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03114942902831257</v>
+        <v>0.03087400964343709</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03572779847070366</v>
+        <v>0.03773403684100455</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09821332185948863</v>
+        <v>0.1005271675461768</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03816837191396123</v>
+        <v>0.03807023866477519</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09129885477820457</v>
+        <v>0.09136958256408478</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07950264518700283</v>
+        <v>0.08127006157082844</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2216028364893076</v>
+        <v>0.2231724831311273</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03285807035671731</v>
+        <v>0.0335361763294573</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06926285031053671</v>
+        <v>0.07003163015761511</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06533256724969277</v>
+        <v>0.065068034875211</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1779259514269472</v>
+        <v>0.1771904404826612</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04282709123456117</v>
+        <v>0.04399441098442469</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05924157052642579</v>
+        <v>0.06027423160230679</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06653931127008325</v>
+        <v>0.06760498372018164</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1445081553072397</v>
+        <v>0.1472888868870893</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06059517524486129</v>
+        <v>0.06207952399184997</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1266461066020918</v>
+        <v>0.1249958665998489</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1202811037037878</v>
+        <v>0.1203568412224465</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2676493062124969</v>
+        <v>0.269784699189914</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05010952196143176</v>
+        <v>0.0500618120875419</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09305327728805811</v>
+        <v>0.09305710104727458</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08986047856237837</v>
+        <v>0.09200307230143666</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2119535032075855</v>
+        <v>0.2098117404269807</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.007207814381002857</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03596156350103815</v>
+        <v>0.03596156350103814</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01373908371176405</v>
@@ -821,7 +821,7 @@
         <v>0.02281968302998709</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.05818914037182899</v>
+        <v>0.05818914037182898</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.01017671891913727</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003628244409865662</v>
+        <v>0.003642916839177811</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003238677765939085</v>
+        <v>0.003203598738842033</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003703673117922092</v>
+        <v>0.00408072516188468</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02916694253386353</v>
+        <v>0.02938572288268052</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.009161485942608193</v>
+        <v>0.008696178743955891</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.009296761211078551</v>
+        <v>0.009627235058039278</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01622036840292451</v>
+        <v>0.01646476493398378</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05106837461982403</v>
+        <v>0.0504942791094067</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.007164580388979821</v>
+        <v>0.007148324040946761</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.007158853637427305</v>
+        <v>0.007143464474510545</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0111136985818627</v>
+        <v>0.01108871854121784</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04161156989848389</v>
+        <v>0.04208200668721854</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01119693957403165</v>
+        <v>0.01180974708633358</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0111875093041801</v>
+        <v>0.01114365468544535</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0120251844860943</v>
+        <v>0.01202869669081915</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04474067321001871</v>
+        <v>0.0444224858609734</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02115181559593095</v>
+        <v>0.02057795002446097</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02052121666879589</v>
+        <v>0.02152045125073942</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03069552707207263</v>
+        <v>0.03107197017929183</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06591753125545807</v>
+        <v>0.06579114259180045</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01430696846059646</v>
+        <v>0.01448639553131061</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01390856233657408</v>
+        <v>0.01372939069824079</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01931213080756356</v>
+        <v>0.01913123584303374</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05313714781541091</v>
+        <v>0.05269214759051321</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.01066271882068228</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.03151858487319018</v>
+        <v>0.03151858487319017</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003165088922857418</v>
+        <v>0.003223289494903137</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003865844735953452</v>
+        <v>0.003864859746799508</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001712700056306033</v>
+        <v>0.00171375866729745</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01586216774018268</v>
+        <v>0.01676815217489694</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.008374341854025254</v>
+        <v>0.009314373172830796</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.005886261208947367</v>
+        <v>0.005934367517162499</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02712119131838302</v>
+        <v>0.02849805927258839</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001914183560118481</v>
+        <v>0.002492746355793387</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.007933729648524002</v>
+        <v>0.008057057550385478</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.005774415220032875</v>
+        <v>0.005486681276050364</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02468774859979427</v>
+        <v>0.02461019968564903</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01942634682736008</v>
+        <v>0.02057784935439147</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03482941329348255</v>
+        <v>0.03702843353714958</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02032898763060794</v>
+        <v>0.01711911610393771</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03589639347066671</v>
+        <v>0.038726589310671</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01270960442567032</v>
+        <v>0.01299310842897839</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03733113276864712</v>
+        <v>0.03780256707385263</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02832278160908441</v>
+        <v>0.02896067161834089</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0516070259083374</v>
+        <v>0.05269704137886816</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01147207247777508</v>
+        <v>0.01240825435718835</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02824912329682342</v>
+        <v>0.02848032867943741</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01963630092706027</v>
+        <v>0.01961476829043791</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04119051422281929</v>
+        <v>0.0403496143569308</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01122318022834878</v>
+        <v>0.01144238637360486</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01297646323005904</v>
+        <v>0.01310659572396077</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01271491842205669</v>
+        <v>0.01241713649571434</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04140392954804217</v>
+        <v>0.04154572695108271</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02045573238250396</v>
+        <v>0.02078010317046013</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04228475420764152</v>
+        <v>0.04255032849403267</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03660295243522107</v>
+        <v>0.03595120129831528</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.08820058472612319</v>
+        <v>0.0879717924636601</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01669427122577981</v>
+        <v>0.01683195214914444</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02970509967753391</v>
+        <v>0.03003514145331615</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02604488401710182</v>
+        <v>0.02627669467594613</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0674966612882181</v>
+        <v>0.06736321673121562</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01946498160689208</v>
+        <v>0.01925800713609086</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0238359340246074</v>
+        <v>0.02356325089793038</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0209892362112757</v>
+        <v>0.02072067934580171</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0543467306900673</v>
+        <v>0.05436990904488893</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03179400011348867</v>
+        <v>0.0322062430309303</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05763694384844151</v>
+        <v>0.05752898576083981</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05056089252180961</v>
+        <v>0.05077993727451638</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1027439565254965</v>
+        <v>0.1026521484437403</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02386913079493733</v>
+        <v>0.02364799133010926</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03913999849848124</v>
+        <v>0.03881731057542086</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03433750324772199</v>
+        <v>0.03432210994885105</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07766223609394762</v>
+        <v>0.07773110578051118</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>22079</v>
+        <v>22381</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>30360</v>
+        <v>30091</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>26951</v>
+        <v>28465</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>56819</v>
+        <v>58158</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>50196</v>
+        <v>50067</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>122139</v>
+        <v>122234</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>79078</v>
+        <v>80836</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>182166</v>
+        <v>183456</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>77112</v>
+        <v>78704</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>160166</v>
+        <v>161944</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>114267</v>
+        <v>113804</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>249197</v>
+        <v>248167</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>44186</v>
+        <v>45390</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>57739</v>
+        <v>58746</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>50194</v>
+        <v>50998</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>83602</v>
+        <v>85211</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>79690</v>
+        <v>81642</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>169427</v>
+        <v>167219</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>119639</v>
+        <v>119714</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>220018</v>
+        <v>221773</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>117599</v>
+        <v>117487</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>215180</v>
+        <v>215189</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>157167</v>
+        <v>160914</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>296855</v>
+        <v>293855</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6144</v>
+        <v>6169</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6361</v>
+        <v>6292</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7690</v>
+        <v>8473</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>65059</v>
+        <v>65547</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>14545</v>
+        <v>13807</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>16342</v>
+        <v>16923</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>32251</v>
+        <v>32737</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>110889</v>
+        <v>109643</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>23508</v>
+        <v>23454</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>26644</v>
+        <v>26586</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>45174</v>
+        <v>45072</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>183172</v>
+        <v>185243</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>18961</v>
+        <v>19999</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21972</v>
+        <v>21886</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24969</v>
+        <v>24976</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>99797</v>
+        <v>99087</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>33582</v>
+        <v>32671</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>36072</v>
+        <v>37829</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>61032</v>
+        <v>61780</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>143133</v>
+        <v>142858</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>46942</v>
+        <v>47531</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>51764</v>
+        <v>51097</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>78498</v>
+        <v>77762</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>233908</v>
+        <v>231949</v>
       </c>
     </row>
     <row r="12">
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1745</v>
+        <v>1777</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>1860</v>
@@ -1832,31 +1832,31 @@
         <v>937</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11287</v>
+        <v>11932</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3841</v>
+        <v>4272</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3232</v>
+        <v>3259</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>19931</v>
+        <v>20943</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1967</v>
+        <v>2562</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7456</v>
+        <v>7572</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>6329</v>
+        <v>6014</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>35710</v>
+        <v>35598</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10712</v>
+        <v>11347</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16759</v>
+        <v>17817</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11118</v>
+        <v>9362</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>25543</v>
+        <v>27557</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6055</v>
+        <v>6190</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>17121</v>
+        <v>17337</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>15553</v>
+        <v>15903</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>37925</v>
+        <v>38726</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11791</v>
+        <v>12753</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>26549</v>
+        <v>26766</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>21522</v>
+        <v>21498</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>59581</v>
+        <v>58364</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>36773</v>
+        <v>37491</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>44377</v>
+        <v>44822</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>42946</v>
+        <v>41940</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>145770</v>
+        <v>146269</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>69124</v>
+        <v>70220</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>150290</v>
+        <v>151234</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>129285</v>
+        <v>126983</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>328839</v>
+        <v>327986</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>111113</v>
+        <v>112029</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>207164</v>
+        <v>209465</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>179963</v>
+        <v>181565</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>489283</v>
+        <v>488315</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>63778</v>
+        <v>63100</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>81514</v>
+        <v>80581</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>70894</v>
+        <v>69987</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>191338</v>
+        <v>191419</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>107438</v>
+        <v>108831</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>204855</v>
+        <v>204471</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>178586</v>
+        <v>179360</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>383061</v>
+        <v>382719</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>158867</v>
+        <v>157395</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>272963</v>
+        <v>270712</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>237262</v>
+        <v>237156</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>562973</v>
+        <v>563472</v>
       </c>
     </row>
     <row r="20">
